--- a/biology/Zoologie/Culter/Culter.xlsx
+++ b/biology/Zoologie/Culter/Culter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Culter est un genre de poissons téléostéens de la famille des Cyprinidae (ordre des Cypriniformes). Ces espèces se rencontrent en eau douce en Asie orientale (de la Sibérie jusqu'au Vietnam). Le nom est dérivé du mot latin « culter », qui signifie « couteau ».
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (1er juillet 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (1er juillet 2023) :
 Culter alburnus Basilewsky, 1855
 Culter flavipinnis Tirant, 1883
 Culter oxycephaloides Kreyenberg &amp; Pappenheim, 1908
@@ -545,9 +559,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Culter Basilewsky (d), 1855[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Culter Basilewsky (d), 1855,.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(la) Stephano Basilewsky, « Ichthyographia Chinae borealis », Nouveaux mémoires de la Société impériale des naturalistes de Moscou, Moscou, Société des naturalistes de Moscou, vol. 10,‎ 1855, p. 215-263 (ISSN 1560-0440, OCLC 36346269, lire en ligne)</t>
         </is>
